--- a/doc/Васекин 2.xlsx
+++ b/doc/Васекин 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
   <si>
     <t>r1</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Не имеет смысла запускать</t>
+  </si>
+  <si>
+    <t>3 подбашни</t>
   </si>
 </sst>
 </file>
@@ -66,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -89,16 +92,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -381,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H6:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,38 +449,35 @@
       <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H7" s="1"/>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O7" s="1">
-        <v>7</v>
-      </c>
-      <c r="P7" s="1">
         <v>8</v>
       </c>
     </row>
@@ -462,16 +506,13 @@
       <c r="O8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="9" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>711</v>
+        <v>815</v>
       </c>
       <c r="J9" s="1">
         <v>815</v>
@@ -485,13 +526,10 @@
       <c r="M9" s="1">
         <v>815</v>
       </c>
-      <c r="N9" s="1">
-        <v>815</v>
+      <c r="N9" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -500,86 +538,190 @@
         <v>2</v>
       </c>
       <c r="I10" s="1">
-        <v>3700</v>
-      </c>
-      <c r="J10" s="1">
         <v>5803</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I11" s="1">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="J11" s="1">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K11" s="1">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L11" s="1">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M11" s="1">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N11" s="1">
-        <v>223</v>
-      </c>
-      <c r="O11" s="1">
         <v>228</v>
       </c>
-      <c r="P11" s="1"/>
+      <c r="O11" s="1"/>
     </row>
     <row r="12" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="1">
-        <v>3966</v>
+        <v>6038</v>
       </c>
       <c r="J12" s="1">
-        <v>6038</v>
+        <v>6040</v>
       </c>
       <c r="K12" s="1">
-        <v>6040</v>
+        <v>6044</v>
       </c>
       <c r="L12" s="1">
-        <v>6044</v>
+        <v>6056</v>
       </c>
       <c r="M12" s="1">
-        <v>6056</v>
+        <v>6060</v>
       </c>
       <c r="N12" s="1">
-        <v>6060</v>
-      </c>
-      <c r="O12" s="1">
         <v>6120</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="H16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <v>6030</v>
+      </c>
+      <c r="J18" s="1">
+        <v>6010</v>
+      </c>
+      <c r="K18" s="1">
+        <v>6004</v>
+      </c>
+      <c r="L18" s="1">
+        <v>6016</v>
+      </c>
+      <c r="M18" s="1">
+        <v>6050</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="8:15" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
         <v>6</v>
       </c>
@@ -588,8 +730,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I6:P6"/>
+  <mergeCells count="2">
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="H13:O13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Васекин 2.xlsx
+++ b/doc/Васекин 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="9">
   <si>
     <t>r1</t>
   </si>
@@ -136,6 +136,7 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -145,7 +146,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -429,7 +429,7 @@
   <dimension ref="H6:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,16 +446,16 @@
   <sheetData>
     <row r="6" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H6" s="1"/>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="5"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
     </row>
     <row r="7" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H7" s="1"/>
@@ -610,16 +610,16 @@
       </c>
     </row>
     <row r="13" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H14" s="1" t="s">
@@ -651,11 +651,21 @@
       <c r="H15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="N15" s="1" t="s">
         <v>6</v>
       </c>
@@ -667,11 +677,21 @@
       <c r="H16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="I16" s="1">
+        <v>5605</v>
+      </c>
+      <c r="J16" s="1">
+        <v>5605</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5605</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="N16" s="1" t="s">
         <v>6</v>
       </c>
@@ -683,9 +703,15 @@
       <c r="H17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="I17" s="1">
+        <v>207</v>
+      </c>
+      <c r="J17" s="1">
+        <v>193</v>
+      </c>
+      <c r="K17" s="1">
+        <v>189</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">

--- a/doc/Васекин 2.xlsx
+++ b/doc/Васекин 2.xlsx
@@ -429,7 +429,7 @@
   <dimension ref="H6:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
